--- a/Структура данных.xlsx
+++ b/Структура данных.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLIVKA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZZZSharaga\МПС\Курсовая\MPSKursach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038A133F-D3C1-4460-BCA2-44A7289A1C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4569A2-2DBF-4E15-971F-BC786CAD23FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
     <t>StartPosition</t>
   </si>
   <si>
-    <t>5 строка матрицы</t>
+    <t>5 строка матрицы (20h)</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
